--- a/public/output/personel-31/پرسنل31_خرداد_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_خرداد_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>ردیف</t>
   </si>
@@ -56,6 +56,15 @@
     <t>وضعیت</t>
   </si>
   <si>
+    <t>اضافه کاری</t>
+  </si>
+  <si>
+    <t>تاخیر در ورود</t>
+  </si>
+  <si>
+    <t>غیبت ساعتی</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
+    <t>2:15:22</t>
+  </si>
+  <si>
     <t>یکشنبه</t>
   </si>
   <si>
@@ -140,6 +152,9 @@
     <t>0:0:0</t>
   </si>
   <si>
+    <t>7:30:0</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -203,6 +218,9 @@
     <t>غیبت (تاخیر در ورود)</t>
   </si>
   <si>
+    <t>0:24:6</t>
+  </si>
+  <si>
     <t>سه شنبه</t>
   </si>
   <si>
@@ -284,6 +302,9 @@
     <t>7:44:12</t>
   </si>
   <si>
+    <t>0:23:41</t>
+  </si>
+  <si>
     <t>1400/3/9</t>
   </si>
   <si>
@@ -344,6 +365,9 @@
     <t>9:8:25</t>
   </si>
   <si>
+    <t>0:22:7</t>
+  </si>
+  <si>
     <t>1400/3/11</t>
   </si>
   <si>
@@ -429,6 +453,9 @@
   </si>
   <si>
     <t>8:56:36</t>
+  </si>
+  <si>
+    <t>0:6:52</t>
   </si>
   <si>
     <t>1400/3/18</t>
@@ -598,541 +625,541 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1142,13 +1169,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1164,532 +1191,634 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="G11" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/output/personel-31/پرسنل31_خرداد_1400.xlsx
+++ b/public/output/personel-31/پرسنل31_خرداد_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -80,7 +77,7 @@
     <t>1400/3/1</t>
   </si>
   <si>
-    <t>0:0:21</t>
+    <t>00:00:21</t>
   </si>
   <si>
     <t>2</t>
@@ -92,19 +89,19 @@
     <t>11:27:47</t>
   </si>
   <si>
-    <t>13:33:0</t>
-  </si>
-  <si>
-    <t>2:5:13</t>
-  </si>
-  <si>
-    <t>13:46:5</t>
+    <t>13:33:00</t>
+  </si>
+  <si>
+    <t>02:05:13</t>
+  </si>
+  <si>
+    <t>13:46:05</t>
   </si>
   <si>
     <t>14:32:11</t>
   </si>
   <si>
-    <t>0:46:6</t>
+    <t>00:46:06</t>
   </si>
   <si>
     <t>15:44:31</t>
@@ -113,7 +110,7 @@
     <t>17:14:45</t>
   </si>
   <si>
-    <t>1:30:14</t>
+    <t>01:30:14</t>
   </si>
   <si>
     <t>5</t>
@@ -125,13 +122,13 @@
     <t>18:18:40</t>
   </si>
   <si>
-    <t>0:52:44</t>
-  </si>
-  <si>
-    <t>5:14:38</t>
-  </si>
-  <si>
-    <t>6:52:28</t>
+    <t>00:52:44</t>
+  </si>
+  <si>
+    <t>05:14:38</t>
+  </si>
+  <si>
+    <t>06:52:28</t>
   </si>
   <si>
     <t>شنبه</t>
@@ -140,7 +137,7 @@
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>2:15:22</t>
+    <t>02:15:22</t>
   </si>
   <si>
     <t>یکشنبه</t>
@@ -149,16 +146,16 @@
     <t>1400/3/2</t>
   </si>
   <si>
-    <t>0:0:0</t>
-  </si>
-  <si>
-    <t>7:30:0</t>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>10:24:6</t>
+    <t>10:24:06</t>
   </si>
   <si>
     <t>10:24:44</t>
@@ -167,7 +164,7 @@
     <t>1400/3/3</t>
   </si>
   <si>
-    <t>0:0:38</t>
+    <t>00:00:38</t>
   </si>
   <si>
     <t>7</t>
@@ -179,7 +176,7 @@
     <t>13:18:23</t>
   </si>
   <si>
-    <t>2:52:53</t>
+    <t>02:52:53</t>
   </si>
   <si>
     <t>8</t>
@@ -191,25 +188,25 @@
     <t>16:14:18</t>
   </si>
   <si>
-    <t>2:2:44</t>
+    <t>02:02:44</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>16:25:6</t>
+    <t>16:25:06</t>
   </si>
   <si>
     <t>20:14:51</t>
   </si>
   <si>
-    <t>3:49:45</t>
-  </si>
-  <si>
-    <t>8:46:0</t>
-  </si>
-  <si>
-    <t>9:50:45</t>
+    <t>03:49:45</t>
+  </si>
+  <si>
+    <t>08:46:00</t>
+  </si>
+  <si>
+    <t>09:50:45</t>
   </si>
   <si>
     <t>دوشنبه</t>
@@ -218,7 +215,7 @@
     <t>غیبت (تاخیر در ورود)</t>
   </si>
   <si>
-    <t>0:24:6</t>
+    <t>00:24:06</t>
   </si>
   <si>
     <t>سه شنبه</t>
@@ -239,6 +236,9 @@
     <t>1400/3/6</t>
   </si>
   <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
     <t>جمعه</t>
   </si>
   <si>
@@ -248,28 +248,28 @@
     <t>10</t>
   </si>
   <si>
-    <t>9:32:2</t>
-  </si>
-  <si>
-    <t>9:32:45</t>
+    <t>09:32:02</t>
+  </si>
+  <si>
+    <t>09:32:45</t>
   </si>
   <si>
     <t>1400/3/8</t>
   </si>
   <si>
-    <t>0:0:43</t>
+    <t>00:00:43</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>9:39:20</t>
+    <t>09:39:20</t>
   </si>
   <si>
     <t>13:10:13</t>
   </si>
   <si>
-    <t>3:30:53</t>
+    <t>03:30:53</t>
   </si>
   <si>
     <t>12</t>
@@ -278,31 +278,31 @@
     <t>13:35:54</t>
   </si>
   <si>
-    <t>17:4:15</t>
-  </si>
-  <si>
-    <t>3:28:21</t>
+    <t>17:04:15</t>
+  </si>
+  <si>
+    <t>03:28:21</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>17:9:52</t>
+    <t>17:09:52</t>
   </si>
   <si>
     <t>17:16:14</t>
   </si>
   <si>
-    <t>0:6:22</t>
-  </si>
-  <si>
-    <t>7:6:19</t>
-  </si>
-  <si>
-    <t>7:44:12</t>
-  </si>
-  <si>
-    <t>0:23:41</t>
+    <t>00:06:22</t>
+  </si>
+  <si>
+    <t>07:06:19</t>
+  </si>
+  <si>
+    <t>07:44:12</t>
+  </si>
+  <si>
+    <t>00:23:41</t>
   </si>
   <si>
     <t>1400/3/9</t>
@@ -311,7 +311,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>10:22:7</t>
+    <t>10:22:07</t>
   </si>
   <si>
     <t>10:22:30</t>
@@ -320,7 +320,7 @@
     <t>1400/3/10</t>
   </si>
   <si>
-    <t>0:0:23</t>
+    <t>00:00:23</t>
   </si>
   <si>
     <t>15</t>
@@ -332,7 +332,7 @@
     <t>12:10:20</t>
   </si>
   <si>
-    <t>1:46:44</t>
+    <t>01:46:44</t>
   </si>
   <si>
     <t>16</t>
@@ -344,7 +344,7 @@
     <t>13:30:37</t>
   </si>
   <si>
-    <t>1:16:25</t>
+    <t>01:16:25</t>
   </si>
   <si>
     <t>17</t>
@@ -356,16 +356,16 @@
     <t>19:30:32</t>
   </si>
   <si>
-    <t>5:34:18</t>
-  </si>
-  <si>
-    <t>8:37:50</t>
-  </si>
-  <si>
-    <t>9:8:25</t>
-  </si>
-  <si>
-    <t>0:22:7</t>
+    <t>05:34:18</t>
+  </si>
+  <si>
+    <t>08:37:50</t>
+  </si>
+  <si>
+    <t>09:08:25</t>
+  </si>
+  <si>
+    <t>00:22:07</t>
   </si>
   <si>
     <t>1400/3/11</t>
@@ -392,25 +392,25 @@
     <t>10:58:16</t>
   </si>
   <si>
-    <t>13:8:20</t>
+    <t>13:08:20</t>
   </si>
   <si>
     <t>1400/3/17</t>
   </si>
   <si>
-    <t>2:10:4</t>
+    <t>02:10:04</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>13:21:8</t>
+    <t>13:21:08</t>
   </si>
   <si>
     <t>14:58:23</t>
   </si>
   <si>
-    <t>1:37:15</t>
+    <t>01:37:15</t>
   </si>
   <si>
     <t>20</t>
@@ -422,40 +422,40 @@
     <t>16:58:33</t>
   </si>
   <si>
-    <t>1:13:52</t>
+    <t>01:13:52</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>17:12:3</t>
+    <t>17:12:03</t>
   </si>
   <si>
     <t>18:13:12</t>
   </si>
   <si>
-    <t>1:1:9</t>
+    <t>01:01:09</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>18:34:4</t>
+    <t>18:34:04</t>
   </si>
   <si>
     <t>19:54:52</t>
   </si>
   <si>
-    <t>1:20:48</t>
-  </si>
-  <si>
-    <t>7:23:8</t>
-  </si>
-  <si>
-    <t>8:56:36</t>
-  </si>
-  <si>
-    <t>0:6:52</t>
+    <t>01:20:48</t>
+  </si>
+  <si>
+    <t>07:23:08</t>
+  </si>
+  <si>
+    <t>08:56:36</t>
+  </si>
+  <si>
+    <t>00:06:52</t>
   </si>
   <si>
     <t>1400/3/18</t>
@@ -500,7 +500,22 @@
     <t>1400/3/31</t>
   </si>
   <si>
-    <t>37:7:55</t>
+    <t>مجموع</t>
+  </si>
+  <si>
+    <t>37:07:55</t>
+  </si>
+  <si>
+    <t>42:32:26</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>00:46:13</t>
+  </si>
+  <si>
+    <t>137:45:55</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -538,6 +553,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -571,12 +592,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -585,13 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,249 +641,243 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -869,22 +885,22 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -892,22 +908,22 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -915,22 +931,22 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -944,22 +960,22 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -967,22 +983,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -990,22 +1006,22 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1013,22 +1029,22 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1042,22 +1058,22 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1065,22 +1081,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1088,22 +1104,22 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1111,22 +1127,22 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1134,22 +1150,22 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1160,6 +1176,20 @@
       </c>
       <c r="I23" s="3" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1177,151 +1207,148 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1329,21 +1356,18 @@
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>80</v>
@@ -1355,7 +1379,7 @@
         <v>95</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>96</v>
@@ -1363,27 +1387,27 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>101</v>
@@ -1395,7 +1419,7 @@
         <v>116</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>117</v>
@@ -1403,65 +1427,62 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -1469,61 +1490,58 @@
         <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>127</v>
@@ -1535,7 +1553,7 @@
         <v>146</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>147</v>
@@ -1543,65 +1561,62 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1609,139 +1624,133 @@
         <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -1749,76 +1758,96 @@
         <v>158</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>46</v>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
